--- a/InputData/indst/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/indst/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\WMITR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055"/>
   </bookViews>
@@ -29,9 +34,6 @@
     <t>Workers</t>
   </si>
   <si>
-    <t>Marginal Income Tax Rate</t>
-  </si>
-  <si>
     <t>WMITR Worker Marginal Income Tax Rate</t>
   </si>
   <si>
@@ -48,12 +50,15 @@
   </si>
   <si>
     <t>This is the average marginal income tax rate faced by workers who earn less than</t>
+  </si>
+  <si>
+    <t>Marginal Income Tax Rate (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,14 +107,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -120,6 +125,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -168,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,7 +211,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,54 +424,54 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -482,19 +490,21 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
